--- a/medicine/Enfance/Le_Trésor_de_Brion/Le_Trésor_de_Brion.xlsx
+++ b/medicine/Enfance/Le_Trésor_de_Brion/Le_Trésor_de_Brion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Tr%C3%A9sor_de_Brion</t>
+          <t>Le_Trésor_de_Brion</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Trésor de Brion est un roman de littérature jeunesse écrit par Jean Lemieux et publié en 1995[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Trésor de Brion est un roman de littérature jeunesse écrit par Jean Lemieux et publié en 1995,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Tr%C3%A9sor_de_Brion</t>
+          <t>Le_Trésor_de_Brion</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guillaume Cormier, 17 ans, habite aux Îles de la Madeleine. Alors qu'il plonge dans les eaux du fleuve Saint-Laurent, Guillaume trouve une vieille croix argentée qui le met sur la piste d'un trésor. Avec son ami Jean-Denis et son amoureuse Aude, il se lance sur la piste de ce trésor[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guillaume Cormier, 17 ans, habite aux Îles de la Madeleine. Alors qu'il plonge dans les eaux du fleuve Saint-Laurent, Guillaume trouve une vieille croix argentée qui le met sur la piste d'un trésor. Avec son ami Jean-Denis et son amoureuse Aude, il se lance sur la piste de ce trésor.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Tr%C3%A9sor_de_Brion</t>
+          <t>Le_Trésor_de_Brion</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Guillaume Cormier[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Guillaume Cormier
 Jean-Denis
 Aude
 le curé Turbide
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le_Tr%C3%A9sor_de_Brion</t>
+          <t>Le_Trésor_de_Brion</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Lemieux a remporté le Prix du livre M. Christie en 1996, dans la catégorie des romans pour les douze à dix-sept ans pour le roman Le Trésor de Brion[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Lemieux a remporté le Prix du livre M. Christie en 1996, dans la catégorie des romans pour les douze à dix-sept ans pour le roman Le Trésor de Brion.
 </t>
         </is>
       </c>
